--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adm-Mrgprb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adm-Mrgprb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Adm</t>
+  </si>
+  <si>
+    <t>Mrgprb1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Adm</t>
-  </si>
-  <si>
-    <t>Mrgprb1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +534,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.650723999999999</v>
+        <v>15.780133</v>
       </c>
       <c r="H2">
-        <v>25.952172</v>
+        <v>47.340399</v>
       </c>
       <c r="I2">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="J2">
-        <v>0.2392268437287548</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,33 +561,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2499753333333333</v>
+        <v>0.01213333333333333</v>
       </c>
       <c r="N2">
-        <v>0.749926</v>
+        <v>0.0364</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.008242098510738843</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.008242098510738842</v>
       </c>
       <c r="Q2">
-        <v>2.162467615474666</v>
+        <v>0.1914656137333333</v>
       </c>
       <c r="R2">
-        <v>19.462208539272</v>
+        <v>1.7231905236</v>
       </c>
       <c r="S2">
-        <v>0.2392268437287548</v>
+        <v>0.003020035386118673</v>
       </c>
       <c r="T2">
-        <v>0.2392268437287548</v>
+        <v>0.003020035386118671</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +596,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.269711</v>
+        <v>15.780133</v>
       </c>
       <c r="H3">
-        <v>78.809133</v>
+        <v>47.340399</v>
       </c>
       <c r="I3">
-        <v>0.7264617444963627</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="J3">
-        <v>0.7264617444963627</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2499753333333333</v>
+        <v>1.393531666666667</v>
       </c>
       <c r="N3">
-        <v>0.749926</v>
+        <v>4.180595</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9466174676786334</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9466174676786333</v>
       </c>
       <c r="Q3">
-        <v>6.566779763795333</v>
+        <v>21.99011503971167</v>
       </c>
       <c r="R3">
-        <v>59.101017874158</v>
+        <v>197.911035357405</v>
       </c>
       <c r="S3">
-        <v>0.7264617444963627</v>
+        <v>0.3468556273360108</v>
       </c>
       <c r="T3">
-        <v>0.7264617444963627</v>
+        <v>0.3468556273360107</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,22 +661,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.021265</v>
+        <v>15.780133</v>
       </c>
       <c r="H4">
-        <v>0.063795</v>
+        <v>47.340399</v>
       </c>
       <c r="I4">
-        <v>0.0005880616271992926</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="J4">
-        <v>0.0005880616271992925</v>
+        <v>0.3664158323494666</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,33 +685,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2499753333333333</v>
+        <v>0.066452</v>
       </c>
       <c r="N4">
-        <v>0.749926</v>
+        <v>0.199356</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.04514043381062782</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.04514043381062782</v>
       </c>
       <c r="Q4">
-        <v>0.005315725463333334</v>
+        <v>1.048621398116</v>
       </c>
       <c r="R4">
-        <v>0.04784152917</v>
+        <v>9.437592583043999</v>
       </c>
       <c r="S4">
-        <v>0.0005880616271992926</v>
+        <v>0.0165401696273372</v>
       </c>
       <c r="T4">
-        <v>0.0005880616271992925</v>
+        <v>0.0165401696273372</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9005953333333334</v>
+        <v>26.269711</v>
       </c>
       <c r="H5">
-        <v>2.701786</v>
+        <v>78.809133</v>
       </c>
       <c r="I5">
-        <v>0.02490503443066491</v>
+        <v>0.6099845940236968</v>
       </c>
       <c r="J5">
-        <v>0.02490503443066491</v>
+        <v>0.6099845940236966</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,33 +747,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2499753333333333</v>
+        <v>0.01213333333333333</v>
       </c>
       <c r="N5">
-        <v>0.749926</v>
+        <v>0.0364</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.008242098510738843</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.008242098510738842</v>
       </c>
       <c r="Q5">
-        <v>0.2251266186484445</v>
+        <v>0.3187391601333334</v>
       </c>
       <c r="R5">
-        <v>2.026139567836</v>
+        <v>2.8686524412</v>
       </c>
       <c r="S5">
-        <v>0.02490503443066491</v>
+        <v>0.005027553113976349</v>
       </c>
       <c r="T5">
-        <v>0.02490503443066491</v>
+        <v>0.005027553113976347</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +782,675 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>26.269711</v>
+      </c>
+      <c r="H6">
+        <v>78.809133</v>
+      </c>
+      <c r="I6">
+        <v>0.6099845940236968</v>
+      </c>
+      <c r="J6">
+        <v>0.6099845940236966</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.393531666666667</v>
+      </c>
+      <c r="N6">
+        <v>4.180595</v>
+      </c>
+      <c r="O6">
+        <v>0.9466174676786334</v>
+      </c>
+      <c r="P6">
+        <v>0.9466174676786333</v>
+      </c>
+      <c r="Q6">
+        <v>36.60767415268167</v>
+      </c>
+      <c r="R6">
+        <v>329.469067374135</v>
+      </c>
+      <c r="S6">
+        <v>0.5774220717176911</v>
+      </c>
+      <c r="T6">
+        <v>0.5774220717176909</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.3188806666666666</v>
-      </c>
-      <c r="H6">
-        <v>0.956642</v>
-      </c>
-      <c r="I6">
-        <v>0.008818315717018348</v>
-      </c>
-      <c r="J6">
-        <v>0.008818315717018348</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.2499753333333333</v>
-      </c>
-      <c r="N6">
-        <v>0.749926</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0.07971230094355555</v>
-      </c>
-      <c r="R6">
-        <v>0.7174107084919999</v>
-      </c>
-      <c r="S6">
-        <v>0.008818315717018348</v>
-      </c>
-      <c r="T6">
-        <v>0.008818315717018348</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>26.269711</v>
+      </c>
+      <c r="H7">
+        <v>78.809133</v>
+      </c>
+      <c r="I7">
+        <v>0.6099845940236968</v>
+      </c>
+      <c r="J7">
+        <v>0.6099845940236966</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.066452</v>
+      </c>
+      <c r="N7">
+        <v>0.199356</v>
+      </c>
+      <c r="O7">
+        <v>0.04514043381062782</v>
+      </c>
+      <c r="P7">
+        <v>0.04514043381062782</v>
+      </c>
+      <c r="Q7">
+        <v>1.745674835372</v>
+      </c>
+      <c r="R7">
+        <v>15.711073518348</v>
+      </c>
+      <c r="S7">
+        <v>0.02753496919202936</v>
+      </c>
+      <c r="T7">
+        <v>0.02753496919202936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.973204</v>
+      </c>
+      <c r="H8">
+        <v>2.919612</v>
+      </c>
+      <c r="I8">
+        <v>0.02259786743912933</v>
+      </c>
+      <c r="J8">
+        <v>0.02259786743912933</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.01213333333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.0364</v>
+      </c>
+      <c r="O8">
+        <v>0.008242098510738843</v>
+      </c>
+      <c r="P8">
+        <v>0.008242098510738842</v>
+      </c>
+      <c r="Q8">
+        <v>0.01180820853333333</v>
+      </c>
+      <c r="R8">
+        <v>0.1062738768</v>
+      </c>
+      <c r="S8">
+        <v>0.0001862538495659217</v>
+      </c>
+      <c r="T8">
+        <v>0.0001862538495659216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.973204</v>
+      </c>
+      <c r="H9">
+        <v>2.919612</v>
+      </c>
+      <c r="I9">
+        <v>0.02259786743912933</v>
+      </c>
+      <c r="J9">
+        <v>0.02259786743912933</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.393531666666667</v>
+      </c>
+      <c r="N9">
+        <v>4.180595</v>
+      </c>
+      <c r="O9">
+        <v>0.9466174676786334</v>
+      </c>
+      <c r="P9">
+        <v>0.9466174676786333</v>
+      </c>
+      <c r="Q9">
+        <v>1.356190592126667</v>
+      </c>
+      <c r="R9">
+        <v>12.20571532914</v>
+      </c>
+      <c r="S9">
+        <v>0.02139153605016605</v>
+      </c>
+      <c r="T9">
+        <v>0.02139153605016605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.973204</v>
+      </c>
+      <c r="H10">
+        <v>2.919612</v>
+      </c>
+      <c r="I10">
+        <v>0.02259786743912933</v>
+      </c>
+      <c r="J10">
+        <v>0.02259786743912933</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.066452</v>
+      </c>
+      <c r="N10">
+        <v>0.199356</v>
+      </c>
+      <c r="O10">
+        <v>0.04514043381062782</v>
+      </c>
+      <c r="P10">
+        <v>0.04514043381062782</v>
+      </c>
+      <c r="Q10">
+        <v>0.06467135220799999</v>
+      </c>
+      <c r="R10">
+        <v>0.582042169872</v>
+      </c>
+      <c r="S10">
+        <v>0.001020077539397359</v>
+      </c>
+      <c r="T10">
+        <v>0.001020077539397359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.01491966666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.044759</v>
+      </c>
+      <c r="I11">
+        <v>0.0003464357417040312</v>
+      </c>
+      <c r="J11">
+        <v>0.0003464357417040312</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.01213333333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.0364</v>
+      </c>
+      <c r="O11">
+        <v>0.008242098510738843</v>
+      </c>
+      <c r="P11">
+        <v>0.008242098510738842</v>
+      </c>
+      <c r="Q11">
+        <v>0.0001810252888888889</v>
+      </c>
+      <c r="R11">
+        <v>0.0016292276</v>
+      </c>
+      <c r="S11">
+        <v>2.855357510765502E-06</v>
+      </c>
+      <c r="T11">
+        <v>2.855357510765501E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01491966666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.044759</v>
+      </c>
+      <c r="I12">
+        <v>0.0003464357417040312</v>
+      </c>
+      <c r="J12">
+        <v>0.0003464357417040312</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.393531666666667</v>
+      </c>
+      <c r="N12">
+        <v>4.180595</v>
+      </c>
+      <c r="O12">
+        <v>0.9466174676786334</v>
+      </c>
+      <c r="P12">
+        <v>0.9466174676786333</v>
+      </c>
+      <c r="Q12">
+        <v>0.02079102795611111</v>
+      </c>
+      <c r="R12">
+        <v>0.187119251605</v>
+      </c>
+      <c r="S12">
+        <v>0.0003279421245252391</v>
+      </c>
+      <c r="T12">
+        <v>0.0003279421245252391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01491966666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.044759</v>
+      </c>
+      <c r="I13">
+        <v>0.0003464357417040312</v>
+      </c>
+      <c r="J13">
+        <v>0.0003464357417040312</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.066452</v>
+      </c>
+      <c r="N13">
+        <v>0.199356</v>
+      </c>
+      <c r="O13">
+        <v>0.04514043381062782</v>
+      </c>
+      <c r="P13">
+        <v>0.04514043381062782</v>
+      </c>
+      <c r="Q13">
+        <v>0.0009914416893333333</v>
+      </c>
+      <c r="R13">
+        <v>0.008922975204000001</v>
+      </c>
+      <c r="S13">
+        <v>1.563825966802657E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.563825966802657E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02822</v>
+      </c>
+      <c r="H14">
+        <v>0.08466</v>
+      </c>
+      <c r="I14">
+        <v>0.0006552704460033352</v>
+      </c>
+      <c r="J14">
+        <v>0.0006552704460033352</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01213333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.0364</v>
+      </c>
+      <c r="O14">
+        <v>0.008242098510738843</v>
+      </c>
+      <c r="P14">
+        <v>0.008242098510738842</v>
+      </c>
+      <c r="Q14">
+        <v>0.0003424026666666667</v>
+      </c>
+      <c r="R14">
+        <v>0.003081624</v>
+      </c>
+      <c r="S14">
+        <v>5.400803567135267E-06</v>
+      </c>
+      <c r="T14">
+        <v>5.400803567135265E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02822</v>
+      </c>
+      <c r="H15">
+        <v>0.08466</v>
+      </c>
+      <c r="I15">
+        <v>0.0006552704460033352</v>
+      </c>
+      <c r="J15">
+        <v>0.0006552704460033352</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.393531666666667</v>
+      </c>
+      <c r="N15">
+        <v>4.180595</v>
+      </c>
+      <c r="O15">
+        <v>0.9466174676786334</v>
+      </c>
+      <c r="P15">
+        <v>0.9466174676786333</v>
+      </c>
+      <c r="Q15">
+        <v>0.03932546363333334</v>
+      </c>
+      <c r="R15">
+        <v>0.3539291727</v>
+      </c>
+      <c r="S15">
+        <v>0.0006202904502403258</v>
+      </c>
+      <c r="T15">
+        <v>0.0006202904502403257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02822</v>
+      </c>
+      <c r="H16">
+        <v>0.08466</v>
+      </c>
+      <c r="I16">
+        <v>0.0006552704460033352</v>
+      </c>
+      <c r="J16">
+        <v>0.0006552704460033352</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.066452</v>
+      </c>
+      <c r="N16">
+        <v>0.199356</v>
+      </c>
+      <c r="O16">
+        <v>0.04514043381062782</v>
+      </c>
+      <c r="P16">
+        <v>0.04514043381062782</v>
+      </c>
+      <c r="Q16">
+        <v>0.00187527544</v>
+      </c>
+      <c r="R16">
+        <v>0.01687747896</v>
+      </c>
+      <c r="S16">
+        <v>2.957919219587412E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.957919219587412E-05</v>
       </c>
     </row>
   </sheetData>
